--- a/Data/processed/company_vendor_matching.xlsx
+++ b/Data/processed/company_vendor_matching.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,16 +558,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>eBay</t>
+          <t>DoorDash Inc.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ebay</t>
+          <t>doordash</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -578,16 +578,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Facebook, Inc.</t>
+          <t>EMC Corporation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>facebook</t>
+          <t>emc</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>334</v>
+        <v>2215</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -598,16 +598,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fiserv, Inc.</t>
+          <t>Equifax, Inc.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fiserv</t>
+          <t>equifax</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GoDaddy</t>
+          <t>Facebook, Inc.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>godaddy</t>
+          <t>facebook</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -638,16 +638,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Google, Inc.</t>
+          <t>Festo Corporation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>google</t>
+          <t>festo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>63966</v>
+        <v>291</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -658,16 +658,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>Fiserv, Inc.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ibm</t>
+          <t>fiserv</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>67985</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -678,16 +678,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intuit, Inc.</t>
+          <t>GoDaddy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>intuit</t>
+          <t>godaddy</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -698,16 +698,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Microsoft Corporation</t>
+          <t>Google, Inc.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>google</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>135995</v>
+        <v>63966</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -718,16 +718,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Motorola, Inc.</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>motorola</t>
+          <t>ibm</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>219</v>
+        <v>67985</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -738,16 +738,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Netflix, Inc.</t>
+          <t>Intuit Inc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>netflix</t>
+          <t>intuit</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -758,16 +758,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nokia Inc.</t>
+          <t>Microsoft Corporation</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nokia</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>135995</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Okta, Inc.</t>
+          <t>Motorola, Inc.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>okta</t>
+          <t>motorola</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -798,16 +798,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Oracle Corporation</t>
+          <t>NCH Corporation</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>nch</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>63212</v>
+        <v>10</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -818,16 +818,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PayPal, Inc.</t>
+          <t>Nokia Inc.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>paypal</t>
+          <t>nokia</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -838,16 +838,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Roku, Inc.</t>
+          <t>Okta, Inc.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>roku</t>
+          <t>okta</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ServiceNow Inc.</t>
+          <t>Oracle Corporation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>servicenow</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>812</v>
+        <v>63212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -878,16 +878,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Snap Inc.</t>
+          <t>PayPal, Inc.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>snap</t>
+          <t>paypal</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -898,16 +898,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Snowflake Inc.</t>
+          <t>Pfizer Inc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>snowflake</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -918,16 +918,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>pnc</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>785</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -938,16 +938,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sprint Corporation</t>
+          <t>Roku, Inc.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sprint</t>
+          <t>roku</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -958,16 +958,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>T-Mobile</t>
+          <t>ServiceNow Inc.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>t-mobile</t>
+          <t>servicenow</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>812</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -978,16 +978,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Twitter, Inc.</t>
+          <t>Snap Inc.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>twitter</t>
+          <t>snap</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -998,16 +998,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Snowflake Inc.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>uber</t>
+          <t>snowflake</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1018,16 +1018,16 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Verizon</t>
+          <t>Sprint Corporation</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>verizon</t>
+          <t>sprint</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1038,16 +1038,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VMware, Inc.</t>
+          <t>T-Mobile</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>vmware</t>
+          <t>t-mobile</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15892</v>
+        <v>22</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1058,16 +1058,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Workday Inc.</t>
+          <t>Twilio</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>workday</t>
+          <t>twilio</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1078,16 +1078,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Yahoo, Inc.</t>
+          <t>Twitter, Inc.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>yahoo</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>315</v>
+        <v>14</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1098,16 +1098,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Zscaler, Inc.</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>zscaler</t>
+          <t>uber</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1118,16 +1118,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Twilio</t>
+          <t>Verizon</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>twilio</t>
+          <t>verizon</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1138,116 +1138,116 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Activision Publishing, Inc.</t>
+          <t>VMware, Inc.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>lis</t>
+          <t>vmware</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>15892</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PARTIAL</t>
+          <t>EXACT</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Adobe Systems Incorporated</t>
+          <t>Workday Inc.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>workday</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PARTIAL</t>
+          <t>EXACT</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Altice USA, Inc.</t>
+          <t>Xerox Corporation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ic</t>
+          <t>xerox</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>1107</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PARTIAL</t>
+          <t>EXACT</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>American Electric Power</t>
+          <t>Yahoo, Inc.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>tri</t>
+          <t>yahoo</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PARTIAL</t>
+          <t>EXACT</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AT&amp;T Group Health Plan</t>
+          <t>Zscaler, Inc.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ea</t>
+          <t>zscaler</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PARTIAL</t>
+          <t>EXACT</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AT&amp;T Services, Inc.</t>
+          <t>A&amp;A Services</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vice</t>
+          <t>se</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1258,16 +1258,16 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ATT-Breach Notification</t>
+          <t>A.Y. McDonald Industries Inc.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ati</t>
+          <t>st</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1278,16 +1278,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ATT-SecurityBreach</t>
+          <t>ABM Industries Incorporated</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>att</t>
+          <t>bm</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1298,16 +1298,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ATT-SecurityBreach2</t>
+          <t>Activision Publishing, Inc.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>att</t>
+          <t>acti</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1318,16 +1318,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Boost Mobile</t>
+          <t>ADF International, Inc.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>500</v>
+        <v>147</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1338,16 +1338,16 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cable One, Inc.</t>
+          <t>Adobe Systems Incorporated</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ca</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>404</v>
+        <v>8</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1358,12 +1358,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cencora, Inc.</t>
+          <t>Advanced Mobile Notary, LLC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>mobile</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1378,12 +1378,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CenturyLink</t>
+          <t>Aero Charter, Inc.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>nt</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1398,16 +1398,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Centurylink Communications</t>
+          <t>AeroGrow International, Inc.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nica</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1418,16 +1418,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Charter Communication</t>
+          <t>AGE Industries, Ltd.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nica</t>
+          <t>ge</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1438,16 +1438,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Charter Communications, Inc.</t>
+          <t>Aladdin Capital</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>nica</t>
+          <t>aladdin</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cisco Systems, Inc.</t>
+          <t>Allied-Locke Industries, Inc.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1478,16 +1478,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Citrix Systems, Inc.</t>
+          <t>Alpha &amp; Omega Semiconductor</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>citrix</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2241</v>
+        <v>253</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1498,16 +1498,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Comcast Cable Communications LLC</t>
+          <t>Altice USA, Inc.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>comcast</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1518,16 +1518,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Comcast Cable Communications, Inc.</t>
+          <t>Altria Group, Inc.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>comcast</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1538,16 +1538,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cricket Wireless LLC</t>
+          <t>Amadas Industries</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>wire</t>
+          <t>ada</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1303</v>
+        <v>2</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1558,16 +1558,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CrowdStrike Holdings, Inc.</t>
+          <t>American Alarm &amp; Communications, Inc.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>arm</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>500</v>
+        <v>601</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1578,16 +1578,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Crown Castle</t>
+          <t>American Electric Power</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1598,16 +1598,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CSX Transportation, Inc.</t>
+          <t>Ametros Financial Corporation</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ati</t>
+          <t>ros</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1618,16 +1618,16 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CyrusOne, Inc.</t>
+          <t>Amgen Inc.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ge</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1638,16 +1638,16 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DISH Network Corporation</t>
+          <t>Amphenol Canada Corporation</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>dish</t>
+          <t>ada</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1658,16 +1658,16 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DISH Network L.L.C.</t>
+          <t>Aon Corporation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dish</t>
+          <t>kaongroup</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1678,12 +1678,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DISH Network, LLC</t>
+          <t>Aon PLC</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>dish</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1698,16 +1698,16 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Disney Consumer Products and Interactive Media</t>
+          <t>API Financial Solutions, Inc.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1718,12 +1718,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Doubletree Suites by Hilton Walt Disney World</t>
+          <t>Ariel Corporation</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ariel_barreiro</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1738,16 +1738,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Duke Energy Corporation</t>
+          <t>Arx Capital LLC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ke</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1758,16 +1758,16 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Fidelity National Information Services, Inc.</t>
+          <t>ASAP Semiconductor LLC</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fidelity National Technology Imaging (FNTI)</t>
+          <t>ASIS International</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ati</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1798,16 +1798,16 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fox &amp; Company CPAs, Inc.</t>
+          <t>AT&amp;T Services, Inc.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>se</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1818,16 +1818,16 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fox Entertainment Group Inc.</t>
+          <t>ATT-Breach Notification</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1838,16 +1838,16 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fox Group</t>
+          <t>ATT-SecurityBreach</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1858,16 +1858,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Fox News LLC</t>
+          <t>ATT-SecurityBreach2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1878,16 +1878,16 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Frontier Communications</t>
+          <t>Automatic Data Processing, Inc.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>nica</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1898,12 +1898,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Frontier Communications Parent, Inc.</t>
+          <t>B Capital Group</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>nica</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1918,16 +1918,16 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Global Payments, Inc.</t>
+          <t>BBB Industries LLC</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>st</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1938,16 +1938,16 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GoDaddy.com</t>
+          <t>BBC Industries, Inc.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>st</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1958,16 +1958,16 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>BDP International, Inc.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1978,16 +1978,16 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Gray Television, Inc.</t>
+          <t>Block and Company, Inc.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>block</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1998,16 +1998,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gray, Inc.</t>
+          <t>Block Electric Company, Inc.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>grayscalecms</t>
+          <t>block</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2018,16 +2018,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hewlett Packard Company</t>
+          <t>Bonland Industries, Inc.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ard</t>
+          <t>st</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2038,16 +2038,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise Company</t>
+          <t>Boost Mobile</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ard</t>
+          <t>st</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2058,16 +2058,16 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hewlett-Packard Company</t>
+          <t>Bray International, Inc.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ard</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2078,16 +2078,16 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Home Box Office, Inc.</t>
+          <t>Brown Construction Services, Inc.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2098,16 +2098,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HP Enterprise Services</t>
+          <t>Brown Integrated Logistics, Inc.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>vice</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2118,16 +2118,16 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HP Enterprise Services, LLC</t>
+          <t>Brown Paindiris &amp; Scott, LLP</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vice</t>
+          <t>bro</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2138,16 +2138,16 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>iHeart Media Inc</t>
+          <t>Brown, Lisle/Cummings, Inc.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2158,16 +2158,16 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>iHeartMedia + Entertainment, Inc.</t>
+          <t>Brown-Forman Corporation</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>bro</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2178,16 +2178,16 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mediacom Communications Corporation</t>
+          <t>Burrelles Information Services, LLC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>nica</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2198,16 +2198,16 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Motorola Mobility, Inc.</t>
+          <t>Cable One, Inc.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>motorola</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2218,12 +2218,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NBC Sports Group</t>
+          <t>Caesars Entertainment, Inc.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>rts</t>
+          <t>esa</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2238,16 +2238,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NBCUniversal</t>
+          <t>Capital Asset Management Group, Inc.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rsa</t>
+          <t>ge</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>246</v>
+        <v>778</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2258,16 +2258,16 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nokia Networks and Solutions US, LLC</t>
+          <t>Capital Brands Distribution, LLC</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>kia</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2278,16 +2278,16 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Oracle USA, Inc.</t>
+          <t>Capital Integration Systems LLC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>63212</v>
+        <v>147</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2298,16 +2298,16 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Paramount</t>
+          <t>Capital Lumber Company</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2318,16 +2318,16 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Paramount Global</t>
+          <t>Carnival Corporation</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ni</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>482</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2338,16 +2338,16 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PayPal Holdings, Inc.</t>
+          <t>Carnival Corporation &amp; PLC</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>paypal</t>
+          <t>ni</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>25</v>
+        <v>482</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2358,16 +2358,16 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Republic Services, Inc.</t>
+          <t>CBD Industries, LLC</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>vice</t>
+          <t>bd</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2378,16 +2378,16 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rocket Mortgage, LLC</t>
+          <t>Cencora, Inc.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rocket</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2398,16 +2398,16 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>salesforce.com</t>
+          <t>Centene Management Corporation</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ge</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9</v>
+        <v>778</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2418,16 +2418,16 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Seagate Technology LLC</t>
+          <t>Centerline Communications, LLC</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ea</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2438,16 +2438,16 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Seagate US LLC</t>
+          <t>Centerstone Insurance and Financial Services</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ea</t>
+          <t>nt</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2458,16 +2458,16 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sinclair Broadcast Group, Inc.</t>
+          <t>CenturyLink</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>nt</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2478,16 +2478,16 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sirius XM Radio, Inc.</t>
+          <t>Centurylink Communications</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2498,16 +2498,16 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sirius XM Satellite Radio</t>
+          <t>Change Healthcare Inc.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>health</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2518,16 +2518,16 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sony Card Marketing &amp; Services Company</t>
+          <t>Chart Industries, Inc.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>vice</t>
+          <t>st</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2538,16 +2538,16 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sony Corporation of America</t>
+          <t>Charter Communication</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>785</v>
+        <v>147</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2558,16 +2558,16 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sony Electronics Inc.</t>
+          <t>Charter Communications, Inc.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>electron</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2578,16 +2578,16 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sony Interactive Entertainment</t>
+          <t>Charter Next Generation, Inc.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>acti</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2598,16 +2598,16 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sony Interactive Entertainment, LLC</t>
+          <t>Christensen Oâ€™Connor Johnson Kindness PLLC</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>acti</t>
+          <t>st</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2618,16 +2618,16 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sony Network Entertainment America Inc.</t>
+          <t>Cintas Corporation</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>nt</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>785</v>
+        <v>1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2638,16 +2638,16 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sony Online Entertainment</t>
+          <t>Cisco Systems, Inc.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2658,16 +2658,16 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sony Online Entertainment LLC</t>
+          <t>Citrix Systems, Inc.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2678,16 +2678,16 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sony Pictures</t>
+          <t>CLAS Information Services</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2698,16 +2698,16 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sony Pictures Entertainment Health and Welfare Benefits Plan</t>
+          <t>Cleo Communications US, LLC</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2718,16 +2718,16 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sony Pictures Entertainment, Inc.</t>
+          <t>CM Group Holdings, Inc. d/b/a Creative Memories</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2738,16 +2738,16 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Spotify USA Inc.</t>
+          <t>Coca-Cola Bottling Company of Northern New England</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>ott</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2758,16 +2758,16 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sprint Business</t>
+          <t>Cognizant Technology Solutions Corporation</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bu</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2778,16 +2778,16 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sprint Nextel</t>
+          <t>Comcast Cable Communications LLC</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2798,16 +2798,16 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>Comcast Cable Communications, Inc.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>disney</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Time Warner Inc.</t>
+          <t>Communications &amp; Power Industries LLC</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2838,16 +2838,16 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TimeWarner</t>
+          <t>Consolidated Edison Company of New York LLC</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ti</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2858,16 +2858,16 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>T-Mobile US, Inc.</t>
+          <t>Corebridge Financial, Inc.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>t-mobile</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2878,16 +2878,16 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>T-Mobile, USA</t>
+          <t>Cornerstone Healthcare Group Management Services LLC</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>t-mobile</t>
+          <t>health</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2898,16 +2898,16 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Uber Technologies, Inc.</t>
+          <t>Corteva Agriscience</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>uber</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2918,16 +2918,16 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Verizon Communications, Inc.</t>
+          <t>Costco Photo Center</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>verizon</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2938,16 +2938,16 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Verizon Corporate Services Group Inc.</t>
+          <t>Cricket Wireless LLC</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vice</t>
+          <t>ke</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2958,16 +2958,16 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Verizon Media</t>
+          <t>CrowdStrike Holdings, Inc.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>verizon</t>
+          <t>ding</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Warner Bros. Distributing Inc.</t>
+          <t>Crown Castle</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2998,16 +2998,16 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Warner Music Group Corp</t>
+          <t>CSI Financial Services, LLC</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ncia</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3018,16 +3018,16 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Warner Music, Inc.</t>
+          <t>CSX Transportation, Inc.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ic</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3038,16 +3038,16 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>WM Waste Management, Inc.</t>
+          <t>CWGS Group</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3058,16 +3058,16 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Yahoo! Inc.</t>
+          <t>CyrusOne, Inc.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>yahoo</t>
+          <t>cyrus</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3078,16 +3078,16 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Yahoo! Voices</t>
+          <t>DC Group</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>yahoo</t>
+          <t>o</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3098,38 +3098,5078 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AT&amp;T, Inc.</t>
+          <t>Defender Industries, Inc.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NO MATCH</t>
+          <t>st</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>PARTIAL</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>Delta Air Lines, Inc.</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>5</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Delta Global Services</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>9</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Deluxe Corporation</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>innovadeluxe</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Derby Industries, LLC</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>500</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>DiGiovine, Hnilo, Jordan + Johnson Ltd</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>482</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>DISH Network Corporation</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>dish</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>DISH Network L.L.C.</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>dish</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>DISH Network, LLC</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>dish</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Disney Consumer Products and Interactive Media</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>acti</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>7</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Doubletree Suites by Hilton Walt Disney World</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>637</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Duke Energy Corporation</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Dulany Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>500</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Dynapar Corporation</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>apa</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Eagle Capital Management, LLC</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>778</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>EatStreet</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>500</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>EBSCO Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>sco</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>7</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>EMJ Corporation</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>jemjabella</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Ensinger Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>778</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Entercom Communications Corp.</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>147</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Essex Property Trust, Inc.</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>500</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Evening Post Industries</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>482</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Evening Telegram Company d/b/a Morgan Murphy Media</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>482</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>FedEx Ground Package System, Inc.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>tem</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>8</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>FGX International Inc.</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>147</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Fidelity National Information Services, Inc.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>3</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Fidelity National Technology Imaging (FNTI)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>3</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Financial Business and Consumer Solutions, Inc.</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>147</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Financial Institution Service Corporation</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>147</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Financial Risk Mitigation, Inc.</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>253</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>First American Financial Corporation</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>500</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Fluke Corporation</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Flutter International Inc.</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>147</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Focus Medical Communications, LLC</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>147</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Forum Communications Company</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>147</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Fox Entertainment Group Inc.</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Fox Group</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Fox News LLC</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Franklin International</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>147</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Freedom Financial Network, LLC</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>37</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Freeport-McMoRan Inc.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>37</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Frontier Communications</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>147</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Frontier Communications Parent, Inc.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>147</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Gallagher NAC</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>gallagher</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>226</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Gates Corporation</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>gatesair</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>4</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>GC Services</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>9</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>General Dynamics Information Technology</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>253</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>General Mills, Inc.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>253</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Georgetown Capital Group, Inc.</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>778</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>GIGAFLIGHT Connectivity, Inc.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>147</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Global Payments, Inc.</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>GoDaddy.com</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Grand River Capital, LLC</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Gray Television, Inc.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>lev</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Gray, Inc.</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>grayscale</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>3</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Harrison, Mauro &amp; Morgan, P.A.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>harris</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Healthcare Fiscal Management, Inc.</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>11</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Herbalife International of America, Inc.</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>147</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Hershey Entertainment &amp; Resorts Company</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>rts</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Company</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ard</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>3</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise Company</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>prise</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>11</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hewlett-Packard Company</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ard</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>3</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Holden International</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>147</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Home Box Office, Inc.</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Honeywell International, Inc.</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>147</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Horizon Healthcare RCM</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>11</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hoya Optical Labs of America, Inc.</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>147</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>HP Enterprise Services</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>prise</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>11</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>HP Enterprise Services, LLC</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>prise</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>11</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>HTI Technology &amp; Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>147</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Huntington Hospitality Financial Services Corp</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>147</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Huntington Ingalls Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>147</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Huntwood Industries</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>IES Communications, LLC</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>147</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>iHeart Media Inc</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>iHeartMedia + Entertainment, Inc.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>IMA Financial Group, Inc.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ncia</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>3</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Impact Mobile Home Communities</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>147</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Indian Industries, Inc. d/b/a RAVE Sports</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>InterActive Financial Marketing Group</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>acti</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>7</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>International Paper Company</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>147</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>J&amp;M Brown Company Inc.</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>bro</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>5</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>J.B. Hunt Transport, Inc.</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Jet Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>500</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Johnson Engineering</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ee</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>10</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Johnson Matthey, Inc.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>att</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>29</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Johnson Oâ€™Hare Company, Inc.</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Johnson, Lauder &amp; Savidge, LLP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>3</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>KeraLink International</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>147</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>King Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>500</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Lavelle Industries Inc.</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>500</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Lawrence Semiconductor Research Laboratory</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>253</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>LC Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>500</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>LCS Financial Services</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ncia</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Leidos, Inc.</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>3</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Lennar Corporation</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>lennart_poettering</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Livingston Street Capital, LLC</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>500</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>LPL Financial LLC</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ncia</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>3</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>LX/JT Intermediate Holdings, Inc. d/b/a Bevolution Group</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>147</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Marathon Petroleum Company LP</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mark Dunning Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>482</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Marking Services, Inc.</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>9</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Marriott International, Inc.</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>147</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Marsh &amp; McLennan Companies, Inc.</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>482</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Martin Showers Smith &amp; McDonald LLP</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>253</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>MD2 International</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>147</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Mead Johnson &amp; Company, LLC</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>ea</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>23</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Mediacom Communications Corporation</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>147</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Mediant Communications Inc.</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>147</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Medical Healthcare Solutions, Inc.</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>147</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Merlin Information Services</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>147</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>MGM Resorts International</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>147</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Morgan Brown &amp; Joy, LLP</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>bro</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>5</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Morgan Industrial, Inc.</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>500</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Morgan Industrial, Inc. dba Omega Morgan</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>mega</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Morgan Truck Body, LLC</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Motorola Mobility, Inc.</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>motorola</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>219</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>MSX International Inc.</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>147</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>MW Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>500</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>National Presto Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>147</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>NBC Sports Group</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>rts</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>NBCUniversal</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>rsa</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>246</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>NCO Financial Systems, Inc.</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>tem</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>8</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Newcourse Communications, Inc.</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>147</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>NextGen Healthcare, Inc.</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>11</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Nokia Networks and Solutions US, LLC</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>147</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Northrop Grumman Systems Corporation</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>tem</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>8</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>NSi Industries LLC</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>500</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Nuance Communications, Inc.</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>147</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Nucor Corporation</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>NVR Settlement Services of Maryland, Inc.</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Oceaneering International, Inc.</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>147</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>On Q Financial, LLC</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>ncia</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>3</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>oneZero Financial Systems, LLC</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>tem</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>8</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Oracle USA, Inc.</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Orbus Visual Communications, LLC</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>147</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>PACCAR</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>9</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Pallet Logistics of America</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>147</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Paramount</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Paramount Global</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Parker-Hannifin Corporation</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>482</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Paycom Payroll, LLC</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Paysafe Group Holdings Limited</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>253</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Pendrick Capital Partner Holdings, LLC</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>ding</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>PepsiCo, Inc.</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>eps</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Perry Johnson &amp; Associates, Inc.</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Perry Johnson, Inc.</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Polaris Industries Inc.</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>500</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Prime Communications</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>147</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Professional Compounding Centers of America, Inc.</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>ding</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Professional Golfers' Association of America</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>147</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Regeneron Pharmaceuticals, Inc.</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>arm</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>601</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Republic Services, Inc.</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>9</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Robinson Waters &amp; O'Dorisio, P.C.</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>risi</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Rochester Industries Placement, Inc.</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>S&amp;G Financial, LLC</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>ncia</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>3</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>SAE International</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>147</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Salesforce.com</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>salesforce</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>8</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>SCM Group</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Seagate Technology LLC</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>seagate</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>62</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Seagate US LLC</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>seagate</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>62</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Seim Johnson, LLP</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>9</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Shawmut Communications Group</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>147</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Sierra Pacific Industries</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>500</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Sinclair Broadcast Group, Inc.</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>bro</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>5</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Sirius XM Radio, Inc.</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>sir</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>85</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Sirius XM Satellite Radio</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>sir</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>85</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Snap-on, Inc.</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>11</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Sony Card Marketing &amp; Services Company</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>147</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Sony Corporation of America</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>sony</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>785</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Sony Electronics Inc.</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>sony</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>785</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Sony Interactive Entertainment</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>acti</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>7</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Sony Interactive Entertainment, LLC</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>acti</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>7</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Sony Network Entertainment America Inc.</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>sony</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>785</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Sony Online Entertainment</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>sony</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>785</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Sony Online Entertainment LLC</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>sony</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>785</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ict</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>6</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Sony Pictures Entertainment, Inc.</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>ict</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>6</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Sorenson Communications</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>147</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>SOS International</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>147</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Southwest Airlines Co.</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>500</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Southwest Binding &amp; Laminating</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>253</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>SP Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>500</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Spotify USA Inc.</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>147</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Sprint Business</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Sprint Nextel</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>nt</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>SRI International</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>147</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>STG International, Inc.</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>147</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Student Transportation of America, Inc.</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>147</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Suddenlink Communications</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>147</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Sumner Communications, Inc.</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>147</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Superior Communications, Inc.</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>147</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>SupraNet Communications, Inc.</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>147</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>SVAM International, Inc.</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>147</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Synergy Healthcare Services</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>11</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Sysco Corporation</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>elecsyscorp</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>2</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>SysInformation Healthcare Services, LLC</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>147</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>T. Rowe Price Retirement Plan Services, Inc.</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>147</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>T.R.A. Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>500</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>TALX Corporation</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>iportalx</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>2</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>TDC Financial, Inc.</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>ncia</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>3</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Tedder Industries, LLC</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>500</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>The Boeing Company</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>The Delta Companies</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>482</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>The EstÃ©e Lauder Companies Inc.</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>482</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>The iRemedy Healthcare Companies, Inc.</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>482</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>The J.M. Smucker Company</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>The Mosaic Tile Company of Virginia, Inc.</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>147</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>The Walt Disney Company</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>disney</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>3</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Time Warner Inc.</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>147</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>TimeWarner</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>147</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>T-Mobile US, Inc.</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>T-Mobile, USA</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Tri Delta</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>tri</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>8</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Truly Nolen of America, Inc.</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Tyler Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Uber Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>United Airlines</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>482</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>US Claims Capital, LLC</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>2</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>USA Waste-Management Resources, LLC</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>778</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Vance Street Capital</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>500</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Verizon Communications Inc.</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>147</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Verizon Corporate Services Group Inc.</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>9</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Verizon Media</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>2</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Volkswagen Group of America, Inc.</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>778</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Vulcan Industries</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>500</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>W.W. Grainger, Inc.</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>778</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Wabtec Corporation</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>bt</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>6</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Warn Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>500</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Warner Bros. Distributing Inc.</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>147</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Warner Music Group Corp</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Warner Music, Inc.</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>ic</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>4</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>WERCS d/b/a Wyoming Financial Group</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>253</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Western Union Financial Services, Inc.</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>ni</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>482</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Wiedenbach Brown</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>bro</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>5</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>WillScot Mobile Mini Holdings Corp.</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>253</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Window to the World Communications, Inc.</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>147</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>WM Waste Management, Inc.</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>778</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Woodward Communications, Inc.</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>ti</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>147</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Worthen Industries, Inc.</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>500</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Xerox State Healthcare, LLC</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>11</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Yahoo! Inc.</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>yahoo</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>315</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Yahoo! Voices</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>yahoo</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>315</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Yum! Brands, Inc.</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>nd</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>PARTIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>AT&amp;T, Inc.</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>NO MATCH</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
           <t>Audacy, Inc</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B381" t="inlineStr">
         <is>
           <t>NO MATCH</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="C381" t="n">
         <v>0</v>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>E.W. Wylie Corporation</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>NO MATCH</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>HBP, Inc.</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>NO MATCH</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Henry Schein, Inc.</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>NO MATCH</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>MNP Corporation</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>NO MATCH</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>PULAU Corporation</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>NO MATCH</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>The Hershey Company</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>NO MATCH</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
